--- a/biology/Botanique/Érable_noir/Érable_noir.xlsx
+++ b/biology/Botanique/Érable_noir/Érable_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_noir</t>
+          <t>Érable_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer nigrum
-L'Érable noir (Acer nigrum) est une espèce d'érables considérée par certains botanistes comme une sous-espèce de l'Acer saccharum (érable à sucre), sous le nom d’Acer saccharum subsp. nigrum[1].
+L'Érable noir (Acer nigrum) est une espèce d'érables considérée par certains botanistes comme une sous-espèce de l'Acer saccharum (érable à sucre), sous le nom d’Acer saccharum subsp. nigrum.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_noir</t>
+          <t>Érable_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve surtout dans les plaines assez humides et riches, souvent sur substrat calcaire. On le trouve à l'état naturel dans le Midwest des États-Unis, au sud-est du Canada, autour des grands-lacs et le long du Fleuve Saint-Laurent, jusqu'à Montréal.
-Au Québec, son aire de répartition est plus restreinte que celle de l'érable à sucre et se limite au sud-ouest du Québec. On le trouve dans les régions de l’Outaouais, des Laurentides, de Lanaudière, de Montréal, de Laval et de la Montérégie[2].
+Au Québec, son aire de répartition est plus restreinte que celle de l'érable à sucre et se limite au sud-ouest du Québec. On le trouve dans les régions de l’Outaouais, des Laurentides, de Lanaudière, de Montréal, de Laval et de la Montérégie.
 La feuille est composée de trois ou cinq lobes larges et courts, et le fruit, en forme de disamare (deux samares rapprochées), a des ailes presque parallèles.
 En raison du développement urbain et de certaines pratiques forestières, l'érable noir se raréfie de plus en plus.
 			Tronc de l'érable noir
